--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tac2-Tacr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tac2-Tacr1.xlsx
@@ -540,22 +540,22 @@
         <v>0.610055</v>
       </c>
       <c r="I2">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
       <c r="J2">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.186297</v>
+        <v>0.4977036666666666</v>
       </c>
       <c r="N2">
-        <v>0.558891</v>
+        <v>1.493111</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.03788380544500001</v>
+        <v>0.1012088701227778</v>
       </c>
       <c r="R2">
-        <v>0.340954249005</v>
+        <v>0.9108798311049999</v>
       </c>
       <c r="S2">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
       <c r="T2">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06012333333333333</v>
+        <v>0.2474416666666667</v>
       </c>
       <c r="H3">
-        <v>0.18037</v>
+        <v>0.742325</v>
       </c>
       <c r="I3">
-        <v>0.2281936932662808</v>
+        <v>0.5489026752835741</v>
       </c>
       <c r="J3">
-        <v>0.2281936932662808</v>
+        <v>0.5489026752835741</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.186297</v>
+        <v>0.4977036666666666</v>
       </c>
       <c r="N3">
-        <v>0.558891</v>
+        <v>1.493111</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01120079663</v>
+        <v>0.1231526247861111</v>
       </c>
       <c r="R3">
-        <v>0.10080716967</v>
+        <v>1.108373623075</v>
       </c>
       <c r="S3">
-        <v>0.2281936932662808</v>
+        <v>0.5489026752835741</v>
       </c>
       <c r="T3">
-        <v>0.2281936932662808</v>
+        <v>0.5489026752835741</v>
       </c>
     </row>
   </sheetData>
